--- a/conseption/Merise1.xlsx
+++ b/conseption/Merise1.xlsx
@@ -69,18 +69,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>id_admin</t>
-  </si>
-  <si>
-    <t>nom_admin</t>
-  </si>
-  <si>
-    <t>email_admin</t>
-  </si>
-  <si>
-    <t>mdp_admin</t>
-  </si>
-  <si>
     <t>id-poste</t>
   </si>
   <si>
@@ -130,6 +118,18 @@
   </si>
   <si>
     <t>#id_admin</t>
+  </si>
+  <si>
+    <t>id_blogger</t>
+  </si>
+  <si>
+    <t>nom_blogger</t>
+  </si>
+  <si>
+    <t>email_blogger</t>
+  </si>
+  <si>
+    <t>mdp_blogger</t>
   </si>
 </sst>
 </file>
@@ -356,29 +356,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +663,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,44 +688,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="F2" s="24" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -741,43 +741,43 @@
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>8</v>
@@ -785,41 +785,41 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>12</v>
@@ -831,28 +831,28 @@
         <v>11</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -861,21 +861,21 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -883,7 +883,7 @@
       <c r="D9" s="2"/>
       <c r="L9" s="17"/>
       <c r="P9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>9</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
